--- a/spliced/falling/2023-03-28_19-36-09/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-28_19-36-09/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.067006587982178</v>
+        <v>-2.194540023803711</v>
       </c>
       <c r="B2" t="n">
-        <v>2.873429775238037</v>
+        <v>3.003044128417969</v>
       </c>
       <c r="C2" t="n">
-        <v>1.423784136772156</v>
+        <v>1.832991361618042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.29484224319458</v>
+        <v>-2.376946449279785</v>
       </c>
       <c r="B3" t="n">
-        <v>2.899919509887696</v>
+        <v>2.956967353820801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9216054677963256</v>
+        <v>2.026212930679321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.572871685028076</v>
+        <v>-2.072798252105713</v>
       </c>
       <c r="B4" t="n">
-        <v>2.635293960571289</v>
+        <v>2.900663375854492</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8762772083282471</v>
+        <v>1.98937726020813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.522858619689941</v>
+        <v>-2.095717430114746</v>
       </c>
       <c r="B5" t="n">
-        <v>2.20503568649292</v>
+        <v>2.981966018676758</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.38813579082489</v>
+        <v>1.861132502555847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.842933177947998</v>
+        <v>-1.865831851959228</v>
       </c>
       <c r="B6" t="n">
-        <v>1.577484607696533</v>
+        <v>2.951019287109375</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.089868783950806</v>
+        <v>1.621297121047974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.4544997215271</v>
+        <v>-2.067006587982178</v>
       </c>
       <c r="B7" t="n">
-        <v>1.255614995956421</v>
+        <v>2.873429775238037</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8465261459350586</v>
+        <v>1.423784136772156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.338289260864258</v>
+        <v>-2.29484224319458</v>
       </c>
       <c r="B8" t="n">
-        <v>1.582705736160278</v>
+        <v>2.899919509887696</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3849935531616211</v>
+        <v>0.9216054677963256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.480844497680664</v>
+        <v>-2.572871685028076</v>
       </c>
       <c r="B9" t="n">
-        <v>1.282651662826538</v>
+        <v>2.635293960571289</v>
       </c>
       <c r="C9" t="n">
-        <v>2.463369131088257</v>
+        <v>-0.8762772083282471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.103891372680664</v>
+        <v>-2.522858619689941</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4368565082550049</v>
+        <v>2.20503568649292</v>
       </c>
       <c r="C10" t="n">
-        <v>3.362291574478149</v>
+        <v>-1.38813579082489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.144227027893066</v>
+        <v>-3.842933177947998</v>
       </c>
       <c r="B11" t="n">
-        <v>2.354315757751465</v>
+        <v>1.577484607696533</v>
       </c>
       <c r="C11" t="n">
-        <v>13.07988262176514</v>
+        <v>-1.089868783950806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.486200332641602</v>
+        <v>-4.4544997215271</v>
       </c>
       <c r="B12" t="n">
-        <v>2.786157846450806</v>
+        <v>1.255614995956421</v>
       </c>
       <c r="C12" t="n">
-        <v>2.96178674697876</v>
+        <v>-0.8465261459350586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.131928443908691</v>
+        <v>-5.338289260864258</v>
       </c>
       <c r="B13" t="n">
-        <v>2.830825328826904</v>
+        <v>1.582705736160278</v>
       </c>
       <c r="C13" t="n">
-        <v>1.916574239730835</v>
+        <v>-0.3849935531616211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.761401176452637</v>
+        <v>-4.480844497680664</v>
       </c>
       <c r="B14" t="n">
-        <v>2.834423780441284</v>
+        <v>1.282651662826538</v>
       </c>
       <c r="C14" t="n">
-        <v>1.722015500068665</v>
+        <v>2.463369131088257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3701868057250976</v>
+        <v>0.103891372680664</v>
       </c>
       <c r="B15" t="n">
-        <v>4.319061279296875</v>
+        <v>0.4368565082550049</v>
       </c>
       <c r="C15" t="n">
-        <v>2.649439811706543</v>
+        <v>3.362291574478149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.228100776672363</v>
+        <v>-1.144227027893066</v>
       </c>
       <c r="B16" t="n">
-        <v>5.800598621368408</v>
+        <v>2.354315757751465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2291691303253173</v>
+        <v>13.07988262176514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6507959365844727</v>
+        <v>2.486200332641602</v>
       </c>
       <c r="B17" t="n">
-        <v>2.542058944702148</v>
+        <v>2.786157846450806</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0516061782836914</v>
+        <v>2.96178674697876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5783891677856445</v>
+        <v>-2.131928443908691</v>
       </c>
       <c r="B18" t="n">
-        <v>2.491969108581543</v>
+        <v>2.830825328826904</v>
       </c>
       <c r="C18" t="n">
-        <v>0.75933837890625</v>
+        <v>1.916574239730835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.4928359985351562</v>
+        <v>-2.761401176452637</v>
       </c>
       <c r="B19" t="n">
-        <v>4.111990451812744</v>
+        <v>2.834423780441284</v>
       </c>
       <c r="C19" t="n">
-        <v>1.581344366073608</v>
+        <v>1.722015500068665</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.7342987060546875</v>
+        <v>0.3701868057250976</v>
       </c>
       <c r="B20" t="n">
-        <v>3.00859808921814</v>
+        <v>4.319061279296875</v>
       </c>
       <c r="C20" t="n">
-        <v>1.478504180908203</v>
+        <v>2.649439811706543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.228100776672363</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.800598621368408</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2291691303253173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.6507959365844727</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.542058944702148</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.0516061782836914</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.5783891677856445</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.491969108581543</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.75933837890625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4928359985351562</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.111990451812744</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.581344366073608</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.7342987060546875</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.00859808921814</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.478504180908203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>-0.7397565841674805</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>3.457760334014893</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>1.365005731582642</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0590333938598632</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.949368000030518</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.155394554138184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.8675603866577148</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.302557468414306</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.166132688522339</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.5926990509033203</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.298477172851562</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.354385137557983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.5156621932983398</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.70509934425354</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.191632270812989</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.767481803894043</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.210179328918457</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.142881870269775</v>
       </c>
     </row>
   </sheetData>
